--- a/data/trans_orig/P16A13-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Clase-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2315,7 +2315,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4076,7 +4076,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5837,7 +5837,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A13-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>15012</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8891</v>
+        <v>8339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24665</v>
+        <v>24967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0316863870847813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01876541262889302</v>
+        <v>0.01760043922694225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05205982256129474</v>
+        <v>0.05269716335075086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>5728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12388</v>
+        <v>11612</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01867840848958654</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006280308157461337</v>
+        <v>0.00628202131370892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0403944138756142</v>
+        <v>0.03786249510356787</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>20741</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12953</v>
+        <v>12531</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30479</v>
+        <v>31250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02657490395992168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01659716266684728</v>
+        <v>0.01605597141135955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03905235819708393</v>
+        <v>0.04004083756441831</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>458764</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>449111</v>
+        <v>448809</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464885</v>
+        <v>465437</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9683136129152187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9479401774387051</v>
+        <v>0.9473028366492486</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9812345873711068</v>
+        <v>0.9823995607730578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -836,19 +836,19 @@
         <v>300952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294292</v>
+        <v>295068</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304754</v>
+        <v>304753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9813215915104134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596055861243858</v>
+        <v>0.9621375048964319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9937196918425388</v>
+        <v>0.993717978686291</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>732</v>
@@ -857,19 +857,19 @@
         <v>759716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>749978</v>
+        <v>749207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767504</v>
+        <v>767926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9734250960400783</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9609476418029164</v>
+        <v>0.9599591624355815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9834028373331527</v>
+        <v>0.9839440285886402</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3815</v>
+        <v>3696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16061</v>
+        <v>16030</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02276996481878058</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01039614371461752</v>
+        <v>0.01007239236956803</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04377126311604975</v>
+        <v>0.04368541625197656</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>11254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6067</v>
+        <v>6203</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19946</v>
+        <v>20687</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03026385905579581</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01631572395927926</v>
+        <v>0.01668115953110354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05363897920896059</v>
+        <v>0.05563033835391407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>19609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11881</v>
+        <v>12564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29588</v>
+        <v>30114</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02654191896651776</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01608088890980119</v>
+        <v>0.01700557579566974</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04004885417960428</v>
+        <v>0.04076041898700054</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358579</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350873</v>
+        <v>350904</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363119</v>
+        <v>363238</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9772300351812194</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9562287368839503</v>
+        <v>0.9563145837480235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9896038562853825</v>
+        <v>0.989927607630432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>352</v>
@@ -1053,19 +1053,19 @@
         <v>360611</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351919</v>
+        <v>351178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365798</v>
+        <v>365662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9697361409442042</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.946361020791038</v>
+        <v>0.9443696616460865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9836842760407207</v>
+        <v>0.9833188404688965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>694</v>
@@ -1074,19 +1074,19 @@
         <v>719190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>709211</v>
+        <v>708685</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>726918</v>
+        <v>726235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9734580810334822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9599511458203952</v>
+        <v>0.9592395810129986</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9839191110901985</v>
+        <v>0.9829944242043301</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5839</v>
+        <v>6504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19963</v>
+        <v>19950</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02211122211071089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01076498744263557</v>
+        <v>0.01199180569416132</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03680609244983025</v>
+        <v>0.03678091493468173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,19 +1199,19 @@
         <v>8928</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4600</v>
+        <v>4681</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16240</v>
+        <v>15805</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05321075247287029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02741921749493006</v>
+        <v>0.02790134351534386</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09679289007449567</v>
+        <v>0.09419935049897639</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1220,19 +1220,19 @@
         <v>20921</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13985</v>
+        <v>12703</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30820</v>
+        <v>31145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02945866169317897</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01969293460591355</v>
+        <v>0.01788683543181588</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04339834461060171</v>
+        <v>0.04385617315472305</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>530396</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>522426</v>
+        <v>522439</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536550</v>
+        <v>535885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9778887778892891</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9631939075501692</v>
+        <v>0.9632190850653181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9892350125573643</v>
+        <v>0.9880081943058387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>155</v>
@@ -1270,19 +1270,19 @@
         <v>158854</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151542</v>
+        <v>151977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163182</v>
+        <v>163101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9467892475271297</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.903207109925504</v>
+        <v>0.9058006495010235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9725807825050693</v>
+        <v>0.9720986564846561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>675</v>
@@ -1291,19 +1291,19 @@
         <v>689250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>679351</v>
+        <v>679026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>696186</v>
+        <v>697468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.970541338306821</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9566016553893986</v>
+        <v>0.956143826845277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9803070653940864</v>
+        <v>0.9821131645681842</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>38076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28030</v>
+        <v>28008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51431</v>
+        <v>52317</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03074769880918945</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0226352978883275</v>
+        <v>0.02261733126652635</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04153225707668213</v>
+        <v>0.04224783709126129</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -1416,19 +1416,19 @@
         <v>21002</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12863</v>
+        <v>13928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30770</v>
+        <v>30565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02940300821604348</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01800853252932546</v>
+        <v>0.01949934619278937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04307770464300946</v>
+        <v>0.04279074407402211</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -1437,19 +1437,19 @@
         <v>59078</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>45880</v>
+        <v>45208</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76291</v>
+        <v>75244</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03025579926046462</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02349688062325306</v>
+        <v>0.02315234138235822</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03907107906443716</v>
+        <v>0.03853476395489482</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1200258</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1186903</v>
+        <v>1186017</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1210304</v>
+        <v>1210326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9692523011908105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584677429233179</v>
+        <v>0.9577521629087392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9773647021116725</v>
+        <v>0.9773826687334738</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>672</v>
@@ -1487,19 +1487,19 @@
         <v>693283</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>683515</v>
+        <v>683720</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>701422</v>
+        <v>700357</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9705969917839565</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9569222953569906</v>
+        <v>0.9572092559259781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9819914674706751</v>
+        <v>0.9805006538072111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1858</v>
@@ -1508,19 +1508,19 @@
         <v>1893542</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1876329</v>
+        <v>1877376</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1906740</v>
+        <v>1907412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9697442007395354</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9609289209355627</v>
+        <v>0.9614652360451051</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9765031193767467</v>
+        <v>0.9768476586176418</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>11059</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5704</v>
+        <v>6094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19645</v>
+        <v>19424</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03163900958420456</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01631977625700321</v>
+        <v>0.01743560680463636</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05620199095194912</v>
+        <v>0.05557066212782878</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>17487</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10297</v>
+        <v>10534</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27502</v>
+        <v>27809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03074598814631089</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01810367482935045</v>
+        <v>0.01852190078955325</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04835542876745599</v>
+        <v>0.04889407030877632</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1654,19 +1654,19 @@
         <v>28546</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18686</v>
+        <v>18465</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40878</v>
+        <v>39709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03108590743501783</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02034844627752005</v>
+        <v>0.02010816568141336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04451567185818308</v>
+        <v>0.04324244220131936</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>338478</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>329892</v>
+        <v>330113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>343833</v>
+        <v>343443</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9683609904157955</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9437980090480508</v>
+        <v>0.9444293378721711</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9836802237429968</v>
+        <v>0.9825643931953636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>522</v>
@@ -1704,19 +1704,19 @@
         <v>551265</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>541250</v>
+        <v>540943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>558455</v>
+        <v>558218</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9692540118536891</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9516445712325441</v>
+        <v>0.9511059296912237</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9818963251706495</v>
+        <v>0.9814780992104468</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>850</v>
@@ -1725,19 +1725,19 @@
         <v>889743</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>877411</v>
+        <v>878580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>899603</v>
+        <v>899824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9689140925649822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9554843281418169</v>
+        <v>0.9567575577986805</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9796515537224797</v>
+        <v>0.9798918343185866</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6452</v>
+        <v>7713</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007042756470284386</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02163718288552729</v>
+        <v>0.02586631490743077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>56</v>
@@ -1850,19 +1850,19 @@
         <v>57073</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43357</v>
+        <v>43276</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72020</v>
+        <v>73030</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04570350657800944</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0347204178559369</v>
+        <v>0.03465507388162781</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05767299444889645</v>
+        <v>0.05848198160373329</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -1871,19 +1871,19 @@
         <v>59173</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45037</v>
+        <v>45575</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76246</v>
+        <v>74994</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03825104879444028</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02911311673893909</v>
+        <v>0.02946078660913672</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04928771337088018</v>
+        <v>0.04847842851179242</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>296101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>291749</v>
+        <v>290488</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9929572435297156</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9783628171144724</v>
+        <v>0.9741336850925696</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1191687</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1176740</v>
+        <v>1175730</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1205403</v>
+        <v>1205484</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9542964934219905</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9423270055511028</v>
+        <v>0.9415180183962647</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9652795821440622</v>
+        <v>0.9653449261183722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1486</v>
@@ -1942,19 +1942,19 @@
         <v>1487787</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1470714</v>
+        <v>1471966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1501923</v>
+        <v>1501385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9617489512055597</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9507122866291198</v>
+        <v>0.9515215714882075</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9708868832610609</v>
+        <v>0.9705392133908632</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>86595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>69667</v>
+        <v>69899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>107476</v>
+        <v>105317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02648845869494772</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02131035656257211</v>
+        <v>0.0213813886861715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03287552761607765</v>
+        <v>0.03221525550576439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>122</v>
@@ -2067,19 +2067,19 @@
         <v>121472</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102801</v>
+        <v>101520</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>142802</v>
+        <v>143523</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03595837305412114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03043138139527706</v>
+        <v>0.03005205808596952</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04227263559441807</v>
+        <v>0.04248594374411361</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>207</v>
@@ -2088,19 +2088,19 @@
         <v>208067</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>181642</v>
+        <v>181457</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>239702</v>
+        <v>236912</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0313010239684915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02732567369957849</v>
+        <v>0.02729785377806864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03606003938928154</v>
+        <v>0.03564041302053588</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3182577</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3161696</v>
+        <v>3163855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3199505</v>
+        <v>3199273</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9735115413050522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9671244723839224</v>
+        <v>0.967784744494236</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9786896434374279</v>
+        <v>0.9786186113138285</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3174</v>
@@ -2138,19 +2138,19 @@
         <v>3256652</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3235322</v>
+        <v>3234601</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3275323</v>
+        <v>3276604</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9640416269458788</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.957727364405582</v>
+        <v>0.9575140562558865</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.969568618604723</v>
+        <v>0.9699479419140306</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6295</v>
@@ -2159,19 +2159,19 @@
         <v>6439229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6407594</v>
+        <v>6410384</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6465654</v>
+        <v>6465839</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9686989760315085</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.963939960610719</v>
+        <v>0.9643595869794642</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9726743263004216</v>
+        <v>0.9727021462219314</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>19212</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11111</v>
+        <v>10263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33474</v>
+        <v>32246</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04394127252248958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02541342417927671</v>
+        <v>0.02347382259465919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07656353603279203</v>
+        <v>0.07375278646794603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2526,19 +2526,19 @@
         <v>18274</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10881</v>
+        <v>10463</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29785</v>
+        <v>29593</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05811322058254868</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03460192464975616</v>
+        <v>0.03327378640582542</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09472061707546907</v>
+        <v>0.0941081789502219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2547,19 +2547,19 @@
         <v>37486</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26018</v>
+        <v>24262</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>53742</v>
+        <v>52380</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0498700162562734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03461388328266671</v>
+        <v>0.03227817700013483</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07149750999205957</v>
+        <v>0.06968523390797207</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>417999</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403737</v>
+        <v>404965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426100</v>
+        <v>426948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9560587274775104</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9234364639672078</v>
+        <v>0.926247213532054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9745865758207233</v>
+        <v>0.9765261774053409</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>267</v>
@@ -2597,19 +2597,19 @@
         <v>296180</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>284669</v>
+        <v>284861</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303573</v>
+        <v>303991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9418867794174514</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9052793829245313</v>
+        <v>0.9058918210497782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9653980753502438</v>
+        <v>0.9667262135941747</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>657</v>
@@ -2618,19 +2618,19 @@
         <v>714179</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>697923</v>
+        <v>699285</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>725647</v>
+        <v>727403</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9501299837437266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9285024900079405</v>
+        <v>0.930314766092028</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9653861167173334</v>
+        <v>0.9677218229998652</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>13375</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6259</v>
+        <v>6888</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22563</v>
+        <v>23635</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03207291174800259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01500960712211411</v>
+        <v>0.01651662537604839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05410666863998711</v>
+        <v>0.05667611605740953</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -2743,19 +2743,19 @@
         <v>15681</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9171</v>
+        <v>8853</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26369</v>
+        <v>25378</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04676420705812288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02734932824781245</v>
+        <v>0.02640067016831651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07863838698135407</v>
+        <v>0.07568262855584422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -2764,19 +2764,19 @@
         <v>29056</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18259</v>
+        <v>19542</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42958</v>
+        <v>42263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03862083274358544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02426997928763432</v>
+        <v>0.02597578229290708</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05709968421025802</v>
+        <v>0.05617565475381136</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>403643</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>394455</v>
+        <v>393383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>410759</v>
+        <v>410130</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9679270882519974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.945893331360013</v>
+        <v>0.9433238839425905</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9849903928778859</v>
+        <v>0.9834833746239516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -2814,19 +2814,19 @@
         <v>319634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308946</v>
+        <v>309937</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>326144</v>
+        <v>326462</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9532357929418771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9213616130186459</v>
+        <v>0.9243173714441558</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9726506717521874</v>
+        <v>0.9735993298316835</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>652</v>
@@ -2835,19 +2835,19 @@
         <v>723277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>709375</v>
+        <v>710070</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734074</v>
+        <v>732791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9613791672564146</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.942900315789742</v>
+        <v>0.9438243452461887</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9757300207123657</v>
+        <v>0.974024217707093</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>21270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13193</v>
+        <v>13102</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32614</v>
+        <v>33545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03401823070950102</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02110016047688488</v>
+        <v>0.02095537892404824</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05216200283584794</v>
+        <v>0.05364999697793367</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2960,19 +2960,19 @@
         <v>11905</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6814</v>
+        <v>5873</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21835</v>
+        <v>20231</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04615546288312357</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02641572126596101</v>
+        <v>0.02276801393706439</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08465354775037749</v>
+        <v>0.07843506949333036</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2981,19 +2981,19 @@
         <v>33175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22375</v>
+        <v>22317</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48265</v>
+        <v>47355</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03756295706948198</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02533397327899293</v>
+        <v>0.02526856048949063</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05464927854887935</v>
+        <v>0.05361796190724722</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>603978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>592634</v>
+        <v>591703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>612055</v>
+        <v>612146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9659817692904989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.947837997164152</v>
+        <v>0.9463500030220648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9788998395231151</v>
+        <v>0.9790446210759517</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>231</v>
@@ -3031,19 +3031,19 @@
         <v>246033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>236103</v>
+        <v>237707</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>251124</v>
+        <v>252065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9538445371168764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9153464522496225</v>
+        <v>0.9215649305066698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.973584278734039</v>
+        <v>0.9772319860629356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>800</v>
@@ -3052,19 +3052,19 @@
         <v>850011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>834921</v>
+        <v>835831</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>860811</v>
+        <v>860869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.962437042930518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9453507214511212</v>
+        <v>0.9463820380927528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9746660267210071</v>
+        <v>0.9747314395105093</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>61310</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>46452</v>
+        <v>46251</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78537</v>
+        <v>77298</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05308012013292969</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04021713149941652</v>
+        <v>0.0400429061607399</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06799476043710714</v>
+        <v>0.06692200909769636</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -3177,19 +3177,19 @@
         <v>34011</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23802</v>
+        <v>23165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47705</v>
+        <v>46530</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04436231467437493</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03104629717554729</v>
+        <v>0.03021597706322465</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06222474240024467</v>
+        <v>0.06069175507111872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>87</v>
@@ -3198,19 +3198,19 @@
         <v>95320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>75859</v>
+        <v>77433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116147</v>
+        <v>117300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04960217288722872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03947515313216107</v>
+        <v>0.0402939912015423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06043986257752886</v>
+        <v>0.06103991793125108</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1093732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1076505</v>
+        <v>1077744</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1108590</v>
+        <v>1108791</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9469198798670703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9320052395628928</v>
+        <v>0.9330779909023037</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9597828685005835</v>
+        <v>0.95995709383926</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>680</v>
@@ -3248,19 +3248,19 @@
         <v>732646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>718952</v>
+        <v>720127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>742855</v>
+        <v>743492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9556376853256251</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9377752575997554</v>
+        <v>0.9393082449288813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9689537028244529</v>
+        <v>0.9697840229367757</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1704</v>
@@ -3269,19 +3269,19 @@
         <v>1826380</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1805553</v>
+        <v>1804400</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845841</v>
+        <v>1844267</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9503978271127713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9395601374224711</v>
+        <v>0.9389600820687486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9605248468678393</v>
+        <v>0.9597060087984577</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>20266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13077</v>
+        <v>12778</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31657</v>
+        <v>31872</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03969123514226412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02561217836525211</v>
+        <v>0.02502469662797633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06199993843809358</v>
+        <v>0.06242160229128788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -3394,19 +3394,19 @@
         <v>51559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38422</v>
+        <v>38467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65223</v>
+        <v>68356</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06790288751991334</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05060126298468652</v>
+        <v>0.05066117251046401</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08589806230662743</v>
+        <v>0.09002449715713724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -3415,19 +3415,19 @@
         <v>71825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>56071</v>
+        <v>56774</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89253</v>
+        <v>88880</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05655966858776617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04415381599217873</v>
+        <v>0.0447077635768547</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07028361367368588</v>
+        <v>0.06998995194411189</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>490330</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>478939</v>
+        <v>478724</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497519</v>
+        <v>497818</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9603087648577359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9380000615619066</v>
+        <v>0.9375783977087121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.974387821634748</v>
+        <v>0.9749753033720236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>654</v>
@@ -3465,19 +3465,19 @@
         <v>707746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>694082</v>
+        <v>690949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>720883</v>
+        <v>720838</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9320971124800866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9141019376933732</v>
+        <v>0.9099755028428625</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9493987370153135</v>
+        <v>0.9493388274895359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1122</v>
@@ -3486,19 +3486,19 @@
         <v>1198076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1180648</v>
+        <v>1181021</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1213830</v>
+        <v>1213127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9434403314122338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9297163863263138</v>
+        <v>0.9300100480558878</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9558461840078211</v>
+        <v>0.9552922364231452</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>4831</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12292</v>
+        <v>12764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01817279943151682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003870349056368919</v>
+        <v>0.003858503593563096</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04623680068335635</v>
+        <v>0.04801505633807291</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -3611,19 +3611,19 @@
         <v>57673</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44524</v>
+        <v>43732</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74013</v>
+        <v>74002</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05218049708946462</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04028427546346422</v>
+        <v>0.039566956252712</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06696453021168113</v>
+        <v>0.06695458968584257</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -3632,19 +3632,19 @@
         <v>62504</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48048</v>
+        <v>46720</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79925</v>
+        <v>79271</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0455867702442436</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03504380585977789</v>
+        <v>0.03407492629051417</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0582927537559849</v>
+        <v>0.05781593212491268</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>261010</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253549</v>
+        <v>253077</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>264812</v>
+        <v>264815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9818272005684832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9537631993166431</v>
+        <v>0.9519849436619277</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.996129650943631</v>
+        <v>0.9961414964064369</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>985</v>
@@ -3682,19 +3682,19 @@
         <v>1047583</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1031243</v>
+        <v>1031254</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1060732</v>
+        <v>1061524</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9478195029105354</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.933035469788319</v>
+        <v>0.9330454103141574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9597157245365358</v>
+        <v>0.9604330437472879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1245</v>
@@ -3703,19 +3703,19 @@
         <v>1308594</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1291173</v>
+        <v>1291827</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1323050</v>
+        <v>1324378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9544132297557564</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9417072462440153</v>
+        <v>0.9421840678750875</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9649561941402222</v>
+        <v>0.9659250737094859</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>140263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117436</v>
+        <v>117119</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>166560</v>
+        <v>169029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04112144991617019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03442905198147225</v>
+        <v>0.03433601413213256</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04883084874617302</v>
+        <v>0.04955478661319506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>173</v>
@@ -3828,19 +3828,19 @@
         <v>189102</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>162944</v>
+        <v>160454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>218528</v>
+        <v>217120</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05343498422791908</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04604336977375856</v>
+        <v>0.04533960330711474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06174975910608212</v>
+        <v>0.06135202311403555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>296</v>
@@ -3849,19 +3849,19 @@
         <v>329366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>291983</v>
+        <v>294611</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>372060</v>
+        <v>372125</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04739158341257377</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04201261666393553</v>
+        <v>0.04239084578122027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05353470126386917</v>
+        <v>0.05354405544170234</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3270693</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3244396</v>
+        <v>3241927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3293520</v>
+        <v>3293837</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9588785500838298</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9511691512538271</v>
+        <v>0.9504452133868051</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9655709480185277</v>
+        <v>0.9656639858678675</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3107</v>
@@ -3899,19 +3899,19 @@
         <v>3349824</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3320398</v>
+        <v>3321806</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3375982</v>
+        <v>3378472</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.946565015772081</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.938250240893918</v>
+        <v>0.9386479768859649</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9539566302262416</v>
+        <v>0.9546603966928854</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6180</v>
@@ -3920,19 +3920,19 @@
         <v>6620515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6577821</v>
+        <v>6577756</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6657898</v>
+        <v>6655270</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9526084165874262</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9464652987361311</v>
+        <v>0.9464559445582978</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9579873833360645</v>
+        <v>0.9576091542187798</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>18394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10697</v>
+        <v>11268</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28893</v>
+        <v>30165</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04286715619176693</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02492903265767605</v>
+        <v>0.02626117422550851</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06733457876909568</v>
+        <v>0.07029883589196788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4287,19 +4287,19 @@
         <v>11008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5102</v>
+        <v>4739</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21095</v>
+        <v>19698</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03171700779895405</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01470174136850777</v>
+        <v>0.01365416070364687</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06078213991225534</v>
+        <v>0.05675875834557759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4308,19 +4308,19 @@
         <v>29402</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19459</v>
+        <v>18870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42821</v>
+        <v>43721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03788135566397898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02507147101730524</v>
+        <v>0.02431186602142844</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05517078564445565</v>
+        <v>0.05633053916544155</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>410698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>400199</v>
+        <v>398927</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>418395</v>
+        <v>417824</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.957132843808233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9326654212309042</v>
+        <v>0.9297011641080321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9750709673423239</v>
+        <v>0.9737388257744911</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>323</v>
@@ -4358,19 +4358,19 @@
         <v>336047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325960</v>
+        <v>327357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341953</v>
+        <v>342316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.968282992201046</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392178600877447</v>
+        <v>0.9432412416544225</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9852982586314922</v>
+        <v>0.9863458392963532</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -4379,19 +4379,19 @@
         <v>746745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>733326</v>
+        <v>732426</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>756688</v>
+        <v>757277</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.962118644336021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9448292143555451</v>
+        <v>0.9436694608345587</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9749285289826952</v>
+        <v>0.9756881339785716</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>12465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6471</v>
+        <v>6216</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22010</v>
+        <v>22687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03304363741758915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01715379714586387</v>
+        <v>0.01647924730995604</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05834731875057728</v>
+        <v>0.06014276013650491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -4504,19 +4504,19 @@
         <v>15896</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9342</v>
+        <v>8899</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27841</v>
+        <v>26815</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04269953452241251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02509315133008598</v>
+        <v>0.02390544035434016</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07478535838768749</v>
+        <v>0.07203033861006718</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -4525,19 +4525,19 @@
         <v>28361</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18937</v>
+        <v>19340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43025</v>
+        <v>42936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03783967625877103</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02526623530499669</v>
+        <v>0.02580358726761954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05740478111134847</v>
+        <v>0.057285868223731</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>364762</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>355217</v>
+        <v>354540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>370756</v>
+        <v>371011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9669563625824108</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9416526812494224</v>
+        <v>0.9398572398634951</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9828462028541359</v>
+        <v>0.983520752690044</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>339</v>
@@ -4575,19 +4575,19 @@
         <v>356377</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>344432</v>
+        <v>345458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362931</v>
+        <v>363374</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9573004654775875</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9252146416123124</v>
+        <v>0.9279696613899331</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9749068486699141</v>
+        <v>0.9760945596456601</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>682</v>
@@ -4596,19 +4596,19 @@
         <v>721139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>706475</v>
+        <v>706564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730563</v>
+        <v>730160</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.962160323741229</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9425952188886516</v>
+        <v>0.9427141317762689</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9747337646950033</v>
+        <v>0.9741964127323804</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>15364</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8667</v>
+        <v>8809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24796</v>
+        <v>26104</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02943745006101321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01660678149328941</v>
+        <v>0.01687783262653879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0475103959463119</v>
+        <v>0.05001567725647799</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -4721,19 +4721,19 @@
         <v>10297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5007</v>
+        <v>4823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20858</v>
+        <v>19920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06198629042796715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03014226355770439</v>
+        <v>0.02903281068242733</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.125560306574206</v>
+        <v>0.1199096127330606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -4742,19 +4742,19 @@
         <v>25661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16084</v>
+        <v>16626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38601</v>
+        <v>39311</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03729619690560725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02337677781792899</v>
+        <v>0.02416403222841563</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0561026572773966</v>
+        <v>0.05713483581533279</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>506550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497118</v>
+        <v>495810</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513247</v>
+        <v>513105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9705625499389868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9524896040536879</v>
+        <v>0.9499843227435211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9833932185067106</v>
+        <v>0.9831221673734611</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -4792,19 +4792,19 @@
         <v>155826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145265</v>
+        <v>146203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161116</v>
+        <v>161300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9380137095720329</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.874439693425794</v>
+        <v>0.8800903872669386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9698577364422956</v>
+        <v>0.9709671893175725</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>633</v>
@@ -4813,19 +4813,19 @@
         <v>662375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649435</v>
+        <v>648725</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>671952</v>
+        <v>671410</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9627038030943927</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9438973427226031</v>
+        <v>0.942865164184667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.976623222182071</v>
+        <v>0.9758359677715843</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>24076</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15557</v>
+        <v>15810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35969</v>
+        <v>35150</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02094263920249214</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01353197156783103</v>
+        <v>0.01375214257632257</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03128690259622157</v>
+        <v>0.03057497816914043</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -4938,19 +4938,19 @@
         <v>30198</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20713</v>
+        <v>20110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43344</v>
+        <v>44048</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03656521525271872</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02507998587444221</v>
+        <v>0.0243497692380948</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05248192611523268</v>
+        <v>0.05333452479230472</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>52</v>
@@ -4959,19 +4959,19 @@
         <v>54275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>39983</v>
+        <v>41195</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69620</v>
+        <v>70290</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02747375308387365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02023940252335583</v>
+        <v>0.02085255273754766</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03524161912013711</v>
+        <v>0.03558057556350394</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1125562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1113669</v>
+        <v>1114488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1134081</v>
+        <v>1133828</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9790573607975078</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687130974037785</v>
+        <v>0.9694250218308598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.986468028432169</v>
+        <v>0.9862478574236774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>770</v>
@@ -5009,19 +5009,19 @@
         <v>795678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>782532</v>
+        <v>781828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>805163</v>
+        <v>805766</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9634347847472813</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9475180738847674</v>
+        <v>0.9466654752076954</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9749200141255578</v>
+        <v>0.9756502307619053</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1849</v>
@@ -5030,19 +5030,19 @@
         <v>1921239</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905894</v>
+        <v>1905224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1935531</v>
+        <v>1934319</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9725262469161263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9647583808798629</v>
+        <v>0.9644194244364963</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9797605974766442</v>
+        <v>0.9791474472624523</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>26529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17891</v>
+        <v>18015</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38605</v>
+        <v>38271</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04274020210295818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02882386618503935</v>
+        <v>0.02902413009175085</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06219554129916302</v>
+        <v>0.06165657225466459</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -5155,19 +5155,19 @@
         <v>26320</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16562</v>
+        <v>17203</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39045</v>
+        <v>37226</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03565284452482753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02243387435500795</v>
+        <v>0.02330217066360023</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05288944699046081</v>
+        <v>0.05042493352754941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -5176,19 +5176,19 @@
         <v>52850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39546</v>
+        <v>40646</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>70681</v>
+        <v>69575</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03889002359271211</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02910035214742499</v>
+        <v>0.0299099863520542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05201164127018588</v>
+        <v>0.05119788890682572</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>594177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>582101</v>
+        <v>582435</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602815</v>
+        <v>602691</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9572597978970419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9378044587008368</v>
+        <v>0.9383434277453354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9711761338149606</v>
+        <v>0.9709758699082489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>675</v>
@@ -5226,19 +5226,19 @@
         <v>711924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>699199</v>
+        <v>701018</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>721682</v>
+        <v>721041</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9643471554751725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9471105530095392</v>
+        <v>0.9495750664724506</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9775661256449915</v>
+        <v>0.9766978293363998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1246</v>
@@ -5247,19 +5247,19 @@
         <v>1306100</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1288269</v>
+        <v>1289375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1319404</v>
+        <v>1318304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9611099764072879</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9479883587298142</v>
+        <v>0.9488021110931744</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9708996478525751</v>
+        <v>0.9700900136479462</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6599</v>
+        <v>5474</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003812336285019089</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0229816233423174</v>
+        <v>0.01906318300146419</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -5372,19 +5372,19 @@
         <v>50018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37613</v>
+        <v>36366</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66029</v>
+        <v>66790</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04622607635440543</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03476210633695723</v>
+        <v>0.03360903714581696</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06102362057338855</v>
+        <v>0.06172651282116806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -5393,19 +5393,19 @@
         <v>51112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38680</v>
+        <v>37720</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69570</v>
+        <v>68038</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03733097958110845</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02825034093867372</v>
+        <v>0.02754971078161121</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05081155686925376</v>
+        <v>0.04969310877846783</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>286050</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280546</v>
+        <v>281671</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9961876637149809</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9770183766576825</v>
+        <v>0.9809368169985357</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1032007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1015996</v>
+        <v>1015235</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1044412</v>
+        <v>1045659</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9537739236455945</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9389763794266116</v>
+        <v>0.938273487178832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9652378936630428</v>
+        <v>0.9663909628541831</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1220</v>
@@ -5464,19 +5464,19 @@
         <v>1318058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1299600</v>
+        <v>1301132</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1330490</v>
+        <v>1331450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9626690204188916</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9491884431307466</v>
+        <v>0.9503068912215323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9717496590613263</v>
+        <v>0.9724502892183888</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>97923</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81323</v>
+        <v>78708</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120141</v>
+        <v>119331</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02892232878611382</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02401953788470488</v>
+        <v>0.02324711099410831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03548466374564852</v>
+        <v>0.03524531866376367</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -5589,19 +5589,19 @@
         <v>143737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122227</v>
+        <v>117050</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170344</v>
+        <v>168397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04070040151080997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03460968786189512</v>
+        <v>0.0331437294841348</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0482344152210386</v>
+        <v>0.04768299532496367</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>217</v>
@@ -5610,19 +5610,19 @@
         <v>241660</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>211232</v>
+        <v>210248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>277437</v>
+        <v>275784</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03493555425068669</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03053671925958152</v>
+        <v>0.03039448587805259</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04010757109550869</v>
+        <v>0.03986858981440389</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3287799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3265581</v>
+        <v>3266391</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3304399</v>
+        <v>3307014</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9710776712138862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9645153362543514</v>
+        <v>0.9647546813362363</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9759804621152951</v>
+        <v>0.9767528890058917</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3201</v>
@@ -5660,19 +5660,19 @@
         <v>3387859</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3361252</v>
+        <v>3363199</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3409369</v>
+        <v>3414546</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.95929959848919</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9517655847789614</v>
+        <v>0.9523170046750368</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9653903121381049</v>
+        <v>0.9668562705158653</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6333</v>
@@ -5681,19 +5681,19 @@
         <v>6675658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6639881</v>
+        <v>6641534</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6706086</v>
+        <v>6707070</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9650644457493133</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9598924289044913</v>
+        <v>0.960131410185596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9694632807404184</v>
+        <v>0.9696055141219474</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>37596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27800</v>
+        <v>28488</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49275</v>
+        <v>49347</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06828000852901002</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05048827116257819</v>
+        <v>0.05173895609706856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08948947180691043</v>
+        <v>0.0896204595219188</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -6048,19 +6048,19 @@
         <v>22091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15660</v>
+        <v>15556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29761</v>
+        <v>29824</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04522974066361765</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03206240647019425</v>
+        <v>0.03185037261833412</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06093513879636563</v>
+        <v>0.06106425646197267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -6069,19 +6069,19 @@
         <v>59687</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48760</v>
+        <v>47600</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75290</v>
+        <v>73061</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0574448921854356</v>
+        <v>0.05744489218543559</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04692807144335424</v>
+        <v>0.04581187850363556</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07246174998117023</v>
+        <v>0.07031673293034341</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>513022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>501343</v>
+        <v>501271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>522818</v>
+        <v>522130</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.93171999147099</v>
+        <v>0.9317199914709902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9105105281930894</v>
+        <v>0.9103795404780812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9495117288374217</v>
+        <v>0.9482610439029315</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>649</v>
@@ -6119,19 +6119,19 @@
         <v>466320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458650</v>
+        <v>458587</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>472751</v>
+        <v>472855</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9547702593363825</v>
+        <v>0.9547702593363823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9390648612036344</v>
+        <v>0.9389357435380274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9679375935298058</v>
+        <v>0.9681496273816659</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1153</v>
@@ -6140,19 +6140,19 @@
         <v>979342</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>963739</v>
+        <v>965968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>990269</v>
+        <v>991429</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9425551078145645</v>
+        <v>0.9425551078145644</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9275382500188299</v>
+        <v>0.9296832670696566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9530719285566458</v>
+        <v>0.9541881214963644</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>27143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19487</v>
+        <v>19359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38855</v>
+        <v>37369</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05617117840207658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0403279821908142</v>
+        <v>0.04006273169390032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08041007251364291</v>
+        <v>0.07733477318296858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -6265,19 +6265,19 @@
         <v>19805</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13464</v>
+        <v>14130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28187</v>
+        <v>28930</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04680452311354071</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03181980117965798</v>
+        <v>0.03339386769415831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06661402390188982</v>
+        <v>0.06836912830915798</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -6286,19 +6286,19 @@
         <v>46948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35757</v>
+        <v>35435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59554</v>
+        <v>58987</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05179824147580636</v>
+        <v>0.05179824147580635</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03945107458689888</v>
+        <v>0.03909633325446537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06570723476860262</v>
+        <v>0.06508195638224121</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>456069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>444357</v>
+        <v>445843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>463725</v>
+        <v>463853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9438288215979234</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9195899274863581</v>
+        <v>0.9226652268170311</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9596720178091859</v>
+        <v>0.9599372683060994</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>558</v>
@@ -6336,19 +6336,19 @@
         <v>403338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>394956</v>
+        <v>394213</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>409679</v>
+        <v>409013</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9531954768864591</v>
+        <v>0.9531954768864593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9333859760981101</v>
+        <v>0.9316308716908421</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.968180198820342</v>
+        <v>0.9666061323058417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1004</v>
@@ -6357,19 +6357,19 @@
         <v>859407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>846801</v>
+        <v>847368</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>870598</v>
+        <v>870920</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9482017585241939</v>
+        <v>0.9482017585241937</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9342927652313974</v>
+        <v>0.9349180436177587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9605489254131013</v>
+        <v>0.9609036667455347</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>36904</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26658</v>
+        <v>28055</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48899</v>
+        <v>51017</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07825042451716609</v>
+        <v>0.0782504245171661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05652579257755094</v>
+        <v>0.05948839514535592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.103685073544367</v>
+        <v>0.1081751832538941</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -6482,19 +6482,19 @@
         <v>21123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15431</v>
+        <v>15213</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28755</v>
+        <v>27780</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1126589488665893</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08230209596573902</v>
+        <v>0.0811363158846323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1533606134763079</v>
+        <v>0.1481634389685461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>88</v>
@@ -6503,19 +6503,19 @@
         <v>58027</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47157</v>
+        <v>46645</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71943</v>
+        <v>72408</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08803864603254709</v>
+        <v>0.0880386460325471</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07154636539658091</v>
+        <v>0.07077020559093417</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1091515833378908</v>
+        <v>0.1098573372439495</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>434708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422713</v>
+        <v>420595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>444954</v>
+        <v>443557</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.921749575482834</v>
+        <v>0.9217495754828338</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8963149264556332</v>
+        <v>0.891824816746106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.943474207422449</v>
+        <v>0.9405116048546442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -6553,19 +6553,19 @@
         <v>166374</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158742</v>
+        <v>159717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>172066</v>
+        <v>172284</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8873410511334106</v>
+        <v>0.8873410511334108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.846639386523692</v>
+        <v>0.8518365610314542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.917697904034261</v>
+        <v>0.9188636841153678</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>689</v>
@@ -6574,19 +6574,19 @@
         <v>601082</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587166</v>
+        <v>586701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>611952</v>
+        <v>612464</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9119613539674528</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8908484166621092</v>
+        <v>0.8901426627560505</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9284536346034192</v>
+        <v>0.9292297944090658</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>74903</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>61076</v>
+        <v>61048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>92795</v>
+        <v>91963</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06617811434376372</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.053961174087349</v>
+        <v>0.05393648636313026</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08198551491568887</v>
+        <v>0.08125029541583687</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -6699,19 +6699,19 @@
         <v>60601</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50087</v>
+        <v>50056</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72036</v>
+        <v>73150</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07041570679480745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05819940703962075</v>
+        <v>0.05816270319573269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08370250107568465</v>
+        <v>0.08499751907571589</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>215</v>
@@ -6720,19 +6720,19 @@
         <v>135504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116956</v>
+        <v>115824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154351</v>
+        <v>153620</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06800848505842638</v>
+        <v>0.0680084850584264</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05869941046385832</v>
+        <v>0.05813103475911265</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07746775111230891</v>
+        <v>0.07710095346879814</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1056940</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1039048</v>
+        <v>1039880</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1070767</v>
+        <v>1070795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9338218856562364</v>
+        <v>0.9338218856562361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.918014485084311</v>
+        <v>0.9187497045841632</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.946038825912651</v>
+        <v>0.9460635136368699</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1116</v>
@@ -6770,19 +6770,19 @@
         <v>800014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>788579</v>
+        <v>787465</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>810528</v>
+        <v>810559</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9295842932051925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9162974989243154</v>
+        <v>0.9150024809242838</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9418005929603793</v>
+        <v>0.941837296804267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2132</v>
@@ -6791,19 +6791,19 @@
         <v>1856954</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1838107</v>
+        <v>1838838</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1875502</v>
+        <v>1876634</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9319915149415734</v>
+        <v>0.9319915149415737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9225322488876915</v>
+        <v>0.9228990465312019</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.941300589536142</v>
+        <v>0.9418689652408874</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>34661</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25376</v>
+        <v>25591</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>47646</v>
+        <v>48357</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06113397547510343</v>
+        <v>0.06113397547510341</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04475738532650277</v>
+        <v>0.04513565549746779</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08403526305310142</v>
+        <v>0.08528862685205953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>203</v>
@@ -6916,19 +6916,19 @@
         <v>101559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>88006</v>
+        <v>89230</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115843</v>
+        <v>115270</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1223415636900019</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1060146656782067</v>
+        <v>0.1074898086421869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1395490524331868</v>
+        <v>0.1388580498951025</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>250</v>
@@ -6937,19 +6937,19 @@
         <v>136221</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120532</v>
+        <v>118398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154324</v>
+        <v>154375</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09750214201234809</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08627249129184199</v>
+        <v>0.08474516854407962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1104601207575657</v>
+        <v>0.1104961797225793</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>532315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>519330</v>
+        <v>518619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>541600</v>
+        <v>541385</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9388660245248966</v>
+        <v>0.9388660245248964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9159647369468989</v>
+        <v>0.9147113731479425</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9552426146734971</v>
+        <v>0.9548643445025322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1086</v>
@@ -6987,19 +6987,19 @@
         <v>728568</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>714284</v>
+        <v>714857</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>742121</v>
+        <v>740897</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8776584363099982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8604509475668133</v>
+        <v>0.8611419501048975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8939853343217932</v>
+        <v>0.892510191357813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1585</v>
@@ -7008,19 +7008,19 @@
         <v>1260882</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1242779</v>
+        <v>1242728</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1276571</v>
+        <v>1278705</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9024978579876519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8895398792424352</v>
+        <v>0.8895038202774209</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9137275087081591</v>
+        <v>0.9152548314559205</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>3526</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1325</v>
+        <v>1089</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9114</v>
+        <v>8402</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01486403370154263</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00558422533008759</v>
+        <v>0.004590615680102267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03841916754081048</v>
+        <v>0.0354187456250363</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -7133,19 +7133,19 @@
         <v>83344</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>69577</v>
+        <v>70926</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97560</v>
+        <v>97217</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09886725532381148</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08253584830660571</v>
+        <v>0.08413548765256827</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1157305924053539</v>
+        <v>0.1153237836584044</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>169</v>
@@ -7154,19 +7154,19 @@
         <v>86871</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74696</v>
+        <v>73806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100324</v>
+        <v>101775</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.08041927150355979</v>
+        <v>0.08041927150355978</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06914924337616435</v>
+        <v>0.06832449871837967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09287329000421005</v>
+        <v>0.09421700431409473</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>233702</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>228114</v>
+        <v>228826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235903</v>
+        <v>236139</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851359662984575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9615808324591905</v>
+        <v>0.9645812543749639</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9944157746699126</v>
+        <v>0.9954093843198978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>993</v>
@@ -7204,19 +7204,19 @@
         <v>759649</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>745433</v>
+        <v>745776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>773416</v>
+        <v>772067</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9011327446761885</v>
+        <v>0.9011327446761882</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8842694075946461</v>
+        <v>0.8846762163415957</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9174641516933943</v>
+        <v>0.9158645123474319</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1100</v>
@@ -7225,19 +7225,19 @@
         <v>993350</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>979897</v>
+        <v>978446</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1005525</v>
+        <v>1006415</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9195807284964402</v>
+        <v>0.91958072849644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9071267099957901</v>
+        <v>0.905782995685905</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9308507566238357</v>
+        <v>0.9316755012816202</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>214733</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>191495</v>
+        <v>189546</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>244543</v>
+        <v>243028</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.06239553102904926</v>
+        <v>0.06239553102904925</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05564294083166484</v>
+        <v>0.05507686039083785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0710573927105539</v>
+        <v>0.07061726208112216</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>590</v>
@@ -7350,19 +7350,19 @@
         <v>308523</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>284008</v>
+        <v>283365</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>334739</v>
+        <v>333038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08492743761534134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07817903885507752</v>
+        <v>0.07800213350987065</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09214389739072047</v>
+        <v>0.09167554516629384</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>876</v>
@@ -7371,19 +7371,19 @@
         <v>523257</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>489408</v>
+        <v>488803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>560482</v>
+        <v>566465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07396613075779385</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06918137646382377</v>
+        <v>0.06909586360951309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07922821222794048</v>
+        <v>0.08007399773762786</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3226755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3196945</v>
+        <v>3198460</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3249993</v>
+        <v>3251942</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9376044689709507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9289426072894462</v>
+        <v>0.9293827379188775</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9443570591683351</v>
+        <v>0.944923139609162</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4650</v>
@@ -7421,19 +7421,19 @@
         <v>3324263</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3298047</v>
+        <v>3299748</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3348778</v>
+        <v>3349421</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9150725623846587</v>
+        <v>0.9150725623846586</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9078561026092794</v>
+        <v>0.9083244548337063</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9218209611449225</v>
+        <v>0.9219978664901294</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7663</v>
@@ -7442,19 +7442,19 @@
         <v>6551018</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6513793</v>
+        <v>6507810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6584867</v>
+        <v>6585472</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9260338692422061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9207717877720599</v>
+        <v>0.9199260022623723</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9308186235361763</v>
+        <v>0.930904136390487</v>
       </c>
     </row>
     <row r="24">
